--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,32 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="369">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
   <si>
-    <t>https://www.review.lexus.com/models/categories/sedans</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/categories/suvs</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/categories/coupes</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/categories/hybrids</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/categories/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/categories/future</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/offers</t>
-  </si>
-  <si>
     <t>https://www.review.lexus.com/offers</t>
   </si>
   <si>
@@ -83,1060 +62,1096 @@
     <t>https://www.review.lexus.com/offers/us/texas/plano</t>
   </si>
   <si>
-    <t>https://www.review.lexus.com/models/IS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-convertible</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/gallery</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/features</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/performance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/comfort-design</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/packages</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/accessories</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/specifications</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/owners</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/IS/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GS/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GX/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LX/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RC/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RCF/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/GSF/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/UX-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/NX-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/RX-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/ES-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LC-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/models/LS-hybrid/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/IS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/ES</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/GS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/LS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/UX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/NX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/RX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/GX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/LX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/RC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/RCF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/LC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/GSF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/UX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/NX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/RX-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/ES-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/LC-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/compare/series/LS-hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/future/IS/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/concept/LF-30-Electrified/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/concept/LFSA/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/concept/LFFC/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/concept/lf-1-limitless/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/LY-650/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/certification-warranty</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/search-inventory</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2018-Lexus-IS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-ES</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2018-Lexus-GS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2018-Lexus-LS</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-NX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-RX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-LX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-GX</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2018-Lexus-RC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-RCF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-GSF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2015-Lexus-ISC</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2016-Lexus-CTh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-NXh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-RXh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2019-Lexus-ESh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2018-Lexus-GSh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2016-Lexus-LSh</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/models/2014-Lexus-ISF</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/financing</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/compare</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lcertified/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/dealers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/dealers/63110-lexus-of-manhattan</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/dealers/64204-sewell-lexus</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/dealers/61230-mcgrath-lexus-of-chicago</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/dealers/60438-jim-falk-lexus-of-beverly-hills</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/search</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/curiosity/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/about</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/about/manufacturing</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/about/technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/about/environment</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/about/philanthropy</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/contact</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/accessibility</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/careers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/privacy</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/privacy/legal-terms</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/privacy/online-statement</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/privacyvts/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/enform</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/enform/in-dash-technology</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/enform/availability-pricing</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/ownership</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/performance/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/tunedcars/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/safety</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/motorsports</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/lexusplus</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/hybrid</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/jason-day</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/lydia-ko</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/natalie-gulbis</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/annika-sorenstam</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/mark-omeara</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/peter-jacobsen</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/johnny-miller</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/charles-howell</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/jamie-sadlowski</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/patrick-cantlay</t>
-  </si>
-  <si>
-    <t>http://www.review.lexus.com/sponsored-athletes/wesley-bryan</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sponsored-athletes/mark-pfeil</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/service</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/guest-experience</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/maintenance</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/tools-and-benefits</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/warranty</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/404-error/</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/request-brochure</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/request-newsletter</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/sfddsf</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/$#@$</t>
+    <t>https://staging.lexus.com</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/sedans</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/suvs</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/coupes</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/hybrids</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/categories/future</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/offers/us</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/offers/us/texas</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/offers/us/texas/plano</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-convertible</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/IS/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GS/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GX/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LX/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RC/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RCF/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/GSF/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/UX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/NX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/RX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/ES-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LC-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/models/LS-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/IS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/ES</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/GS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/LS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/UX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/NX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/RX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/GX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/LX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/RC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/RCF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/LC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/GSF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/UX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/NX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/RX-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/ES-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/LC-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/compare/series/LS-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/future/IS/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/concept/LF-30-Electrified/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/concept/LFSA/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/concept/LFFC/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/concept/lf-1-limitless/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/LY-650/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/certification-warranty</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/search-inventory</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2018-Lexus-IS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-ES</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2018-Lexus-GS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2018-Lexus-LS</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-NX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-RX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-LX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-GX</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2018-Lexus-RC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-RCF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-GSF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2015-Lexus-ISC</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2016-Lexus-CTh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-NXh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-RXh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2019-Lexus-ESh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2018-Lexus-GSh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2016-Lexus-LSh</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/models/2014-Lexus-ISF</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/financing</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/compare</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lcertified/offers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/63110-lexus-of-manhattan</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/64204-sewell-lexus</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/61230-mcgrath-lexus-of-chicago</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/60438-jim-falk-lexus-of-beverly-hills</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/search</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/curiosity/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/about</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/about/manufacturing</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/about/technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/about/environment</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/about/philanthropy</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/contact</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/accessibility</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/careers</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/privacy</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/privacy/legal-terms</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/privacy/online-statement</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/privacyvts/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform/in-dash-technology</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform/availability-pricing</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/ownership</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/performance/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/tunedcars/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/safety</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/motorsports</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/lexusplus</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/jason-day</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/lydia-ko</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/natalie-gulbis</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/annika-sorenstam</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/mark-omeara</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/peter-jacobsen</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/johnny-miller</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/charles-howell</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/jamie-sadlowski</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/patrick-cantlay</t>
+  </si>
+  <si>
+    <t>http://staging.lexus.com/sponsored-athletes/wesley-bryan</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sponsored-athletes/mark-pfeil</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/service</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/guest-experience</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/maintenance</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/tools-and-benefits</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/warranty</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/404-error/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/request-brochure</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/request-newsletter</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/sfddsf</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/$#@$</t>
   </si>
 </sst>
 </file>
@@ -1464,1827 +1479,1827 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3309,67 +3324,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3390,102 +3405,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3508,97 +3523,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3618,97 +3633,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3728,97 +3743,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3841,97 +3856,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -3951,192 +3966,192 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4156,97 +4171,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4266,97 +4281,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4376,97 +4391,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4486,152 +4501,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4652,97 +4667,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4762,97 +4777,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4872,97 +4887,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4982,32 +4997,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5028,102 +5043,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5136,7 +5151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD35"/>
     </sheetView>
   </sheetViews>
@@ -5144,27 +5159,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5185,12 +5200,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5215,32 +5230,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5253,8 +5268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,22 +5281,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5302,147 +5317,147 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="369">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -3956,201 +3956,156 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5268,7 +5223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="377">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1152,16 +1152,48 @@
   </si>
   <si>
     <t>https://staging.lexus.com/$#@$</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/60419-keyes-lexus</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/60406-lexus-santa-monica</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/dealers/60445-lexus-of-cerritos</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LFSA/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LFFC/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/lf-1-limitless/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/LY-650/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1184,13 +1216,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3958,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4446,10 +4481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,91 +4551,86 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5104,10 +5134,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,6 +5165,21 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5175,47 +5220,49 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>285</v>
+      <c r="A1" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>286</v>
+      <c r="A2" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>287</v>
+      <c r="A3" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>288</v>
+      <c r="A4" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>290</v>
+      <c r="A5" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="382">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1163,9 +1163,6 @@
     <t>https://staging.lexus.com/dealers/60445-lexus-of-cerritos</t>
   </si>
   <si>
-    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified/</t>
-  </si>
-  <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LFSA/</t>
   </si>
   <si>
@@ -1176,6 +1173,24 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/LY-650/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/all-offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/rest/lexus/offers?zip=91302&amp;offerCategory=NEW</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/models/categories/future</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified</t>
   </si>
 </sst>
 </file>
@@ -1510,1829 +1525,1829 @@
       <selection activeCell="A343" sqref="A343:XFD345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -3355,69 +3370,69 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>358</v>
       </c>
@@ -3436,104 +3451,104 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3554,99 +3569,99 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3664,99 +3679,99 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -3774,99 +3789,99 @@
       <selection activeCell="A20" sqref="A20:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3887,99 +3902,99 @@
       <selection activeCell="A20" sqref="A20:XFD171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3997,149 +4012,149 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -4157,99 +4172,99 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -4267,99 +4282,99 @@
       <selection activeCell="A20" sqref="A20:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -4377,99 +4392,99 @@
       <selection activeCell="A20" sqref="A20:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -4481,156 +4496,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4648,99 +4658,99 @@
       <selection activeCell="A20" sqref="A20:XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -4758,99 +4768,99 @@
       <selection activeCell="A20" sqref="A20:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -4868,99 +4878,99 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -4975,44 +4985,47 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD43"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5024,104 +5037,104 @@
       <selection activeCell="A21" sqref="A21:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>284</v>
       </c>
@@ -5140,44 +5153,44 @@
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -5196,14 +5209,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>368</v>
       </c>
@@ -5226,31 +5239,31 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>376</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -5259,51 +5272,73 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5315,149 +5350,149 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>293</v>
       </c>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="382">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -5031,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5056,86 +5056,76 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5235,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="395">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1154,15 +1154,6 @@
     <t>https://staging.lexus.com/$#@$</t>
   </si>
   <si>
-    <t>https://staging.lexus.com/dealers/60419-keyes-lexus</t>
-  </si>
-  <si>
-    <t>https://staging.lexus.com/dealers/60406-lexus-santa-monica</t>
-  </si>
-  <si>
-    <t>https://staging.lexus.com/dealers/60445-lexus-of-cerritos</t>
-  </si>
-  <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LFSA/</t>
   </si>
   <si>
@@ -1191,6 +1182,54 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/about</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/about/manufacturing</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/about/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/about/environment</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/about/philanthropy</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/accessibility</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/careers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/privacy</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/63110-lexus-of-manhattan</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/64204-sewell-lexus</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/61230-mcgrath-lexus-of-chicago</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/60438-jim-falk-lexus-of-beverly-hills</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/60419-keyes-lexus</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/60406-lexus-santa-monica</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/60445-lexus-of-cerritos</t>
   </si>
 </sst>
 </file>
@@ -4496,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4511,27 +4550,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
@@ -4541,106 +4580,96 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5017,7 +5046,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -5140,54 +5169,64 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>317</v>
+      <c r="A1" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>318</v>
+      <c r="A2" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>319</v>
+      <c r="A3" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>320</v>
+      <c r="A4" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>321</v>
+      <c r="A5" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>369</v>
+      <c r="A6" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>370</v>
+      <c r="A7" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>371</v>
+      <c r="A8" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5226,34 +5265,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>381</v>
+      <c r="A5" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5262,9 +5301,10 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5305,22 +5345,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="ModelPagesOwners" sheetId="13" r:id="rId21"/>
     <sheet name="ModelPagesOffers" sheetId="14" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="416">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1230,6 +1230,69 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/dealers/60445-lexus-of-cerritos</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/IS</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/ES</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/LS</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/UX</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/NX</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/RX</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/GX</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/LX</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/RC</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/RCF</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/LC</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/UX-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/NX-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/RX-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/ES-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/LC-hybrid</t>
+  </si>
+  <si>
+    <t>https://www.review.lexus.com/compare/series/LS-hybrid</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform/in-dash-technology/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/enform/availability-pricing/</t>
   </si>
 </sst>
 </file>
@@ -3484,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3504,97 +3567,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://www.lexus.com/models/LC-convertible"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.lexus.com/models/LC-convertible"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3602,10 +3655,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3622,86 +3675,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3712,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3732,86 +3775,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3822,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD190"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3842,92 +3875,82 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.lexus.com/models/LC/technology"/>
+    <hyperlink ref="A11" r:id="rId1" display="https://www.lexus.com/models/LC/technology"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3935,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD171"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3955,86 +3978,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4045,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4115,86 +4128,76 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4205,10 +4208,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4225,86 +4228,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4315,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD95"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4335,86 +4328,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4425,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD76"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4445,86 +4428,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4535,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4599,92 +4572,112 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>337</v>
+      <c r="A12" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>340</v>
+      <c r="A15" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>341</v>
+      <c r="A16" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>366</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD57"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4701,86 +4694,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4791,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD38"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4811,86 +4794,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4901,10 +4874,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4921,86 +4894,76 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5063,104 +5026,124 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>265</v>
+      <c r="A1" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>266</v>
+      <c r="A2" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>267</v>
+      <c r="A3" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>269</v>
+      <c r="A4" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>270</v>
+      <c r="A5" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>271</v>
+      <c r="A6" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>272</v>
+      <c r="A7" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>273</v>
+      <c r="A8" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>274</v>
+      <c r="A9" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>275</v>
+      <c r="A10" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>276</v>
+      <c r="A11" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>277</v>
+      <c r="A12" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>279</v>
+      <c r="A13" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>280</v>
+      <c r="A14" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>281</v>
+      <c r="A15" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>282</v>
+      <c r="A16" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>283</v>
+      <c r="A17" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>284</v>
+      <c r="A18" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="417">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1293,6 +1293,9 @@
   </si>
   <si>
     <t>https://staging.lexus.com/enform/availability-pricing/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/contact</t>
   </si>
 </sst>
 </file>
@@ -4511,7 +4514,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4547,8 +4550,8 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>329</v>
+      <c r="A7" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
@@ -4666,9 +4669,10 @@
     <hyperlink ref="A12" r:id="rId1"/>
     <hyperlink ref="A15" r:id="rId2"/>
     <hyperlink ref="A16" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="616">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1296,6 +1296,603 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/contact</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/accessories</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/owners</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-convertible</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/gallery</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/features</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/technology</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/comfort-design</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/packages</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/specifications</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/offers</t>
   </si>
 </sst>
 </file>
@@ -3553,99 +4150,99 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3661,94 +4258,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3761,94 +4358,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3861,94 +4458,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4623,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
@@ -4064,144 +4661,144 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4214,94 +4811,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4314,94 +4911,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -4414,94 +5011,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4681,94 +5278,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -4781,94 +5378,94 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4880,95 +5477,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="632">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1893,6 +1893,54 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/IS/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/UX/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/GX/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LX/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RC/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RCF/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/NX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/RX-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/ES-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LC-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/performance</t>
   </si>
 </sst>
 </file>
@@ -4560,65 +4608,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
@@ -4628,27 +4676,27 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="664">
   <si>
     <t>https://www.review.lexus.com</t>
   </si>
@@ -1178,9 +1178,6 @@
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/rest/lexus/offers?zip=91302&amp;offerCategory=NEW</t>
   </si>
   <si>
-    <t>https://www.review.lexus.com/models/categories/future</t>
-  </si>
-  <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified</t>
   </si>
   <si>
@@ -1941,6 +1938,105 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/LS-hybrid/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/certification-warranty</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/search-inventory</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2018-Lexus-IS</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-ES</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2018-Lexus-GS</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2018-Lexus-LS</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-NX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-RX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-LX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-GX</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2018-Lexus-RC</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-RCF</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-GSF</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2015-Lexus-ISC</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2016-Lexus-CTh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-NXh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-RXh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2019-Lexus-ESh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2018-Lexus-GSh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2016-Lexus-LSh</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/models/2014-Lexus-ISF</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/financing</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/compare</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/lcertified/offers</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/sedans</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/suvs</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/coupes</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/hybrids</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/tools-and-benefits</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/future</t>
   </si>
 </sst>
 </file>
@@ -4205,92 +4301,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4313,87 +4409,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4413,87 +4509,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4513,87 +4609,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4608,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
@@ -4616,87 +4712,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -4716,137 +4812,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4866,87 +4962,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4966,87 +5062,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5066,87 +5162,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5171,47 +5267,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -5221,7 +5317,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
@@ -5236,76 +5332,71 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5333,87 +5424,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5433,87 +5524,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5533,87 +5624,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -5626,47 +5717,48 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://staging.lexus.com/models/categories/sedans"/>
+    <hyperlink ref="A6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5682,92 +5774,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5808,42 +5900,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5924,7 +6016,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6006,161 +6098,159 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>309</v>
+      <c r="A24" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>293</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" display="https://staging.lexus.com/lcertified/models/2019-Lexus-RXh"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -5254,7 +5254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5406,9 +5406,10 @@
     <hyperlink ref="A15" r:id="rId2"/>
     <hyperlink ref="A16" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A17" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6100,7 +6101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="664">
-  <si>
-    <t>https://www.review.lexus.com</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/offers</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/offers/us</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/offers/us/texas</t>
-  </si>
-  <si>
-    <t>https://www.review.lexus.com/offers/us/texas/plano</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="666">
   <si>
     <t>https://staging.lexus.com</t>
   </si>
@@ -2037,6 +2022,27 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/categories/future</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/IS500/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/nextNX/</t>
+  </si>
+  <si>
+    <t>https://staging.lexus.com/LF-Z-Electrified/</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/offers/us/texas/plano</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/offers/us/texas</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/offers/us</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com</t>
   </si>
 </sst>
 </file>
@@ -2375,1827 +2381,1827 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4220,67 +4226,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4301,92 +4307,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4409,87 +4415,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4509,87 +4515,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4609,87 +4615,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4712,87 +4718,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -4812,137 +4818,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -4962,87 +4968,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5062,87 +5068,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -5162,87 +5168,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5252,161 +5258,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>382</v>
+      <c r="A6" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>415</v>
+      <c r="A7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>336</v>
+      <c r="A11" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>412</v>
+      <c r="A12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>338</v>
+      <c r="A14" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>340</v>
+      <c r="A17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>662</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2"/>
-    <hyperlink ref="A16" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A17" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -5425,87 +5426,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5525,87 +5526,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5625,87 +5626,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5725,32 +5726,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -5775,92 +5776,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5901,42 +5902,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5967,12 +5968,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5987,37 +5988,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -6027,9 +6043,11 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6037,63 +6055,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6109,142 +6132,142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="674">
   <si>
     <t>https://staging.lexus.com</t>
   </si>
@@ -1268,9 +1268,6 @@
     <t>https://www.review.lexus.com/compare/series/LS-hybrid</t>
   </si>
   <si>
-    <t>https://staging.lexus.com/enform/</t>
-  </si>
-  <si>
     <t>https://staging.lexus.com/enform/in-dash-technology/</t>
   </si>
   <si>
@@ -2043,6 +2040,33 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/performance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/safety</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/hybrid</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/service</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/guest-experience</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/maintenance</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/warranty</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/request-brochure</t>
+  </si>
+  <si>
+    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/request-newsletter</t>
   </si>
 </sst>
 </file>
@@ -4307,92 +4331,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4415,87 +4439,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4515,87 +4539,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4615,87 +4639,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4718,87 +4742,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -4818,137 +4842,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4968,87 +4992,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5068,87 +5092,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5168,87 +5192,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -5258,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5293,7 +5317,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
@@ -5313,104 +5337,101 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>332</v>
-      </c>
-    </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>333</v>
+      <c r="A13" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>408</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>409</v>
+      <c r="A15" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>335</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>337</v>
+      <c r="A18" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>338</v>
+      <c r="A19" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>340</v>
+      <c r="A20" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>354</v>
+      <c r="A21" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>356</v>
+      <c r="A23" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>657</v>
+      <c r="A24" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>361</v>
+      <c r="A25" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
-    <hyperlink ref="A14" r:id="rId2"/>
-    <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A14" r:id="rId4"/>
     <hyperlink ref="A16" r:id="rId5"/>
+    <hyperlink ref="A18" r:id="rId6"/>
+    <hyperlink ref="A19" r:id="rId7"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+    <hyperlink ref="A21" r:id="rId9"/>
+    <hyperlink ref="A23" r:id="rId10"/>
+    <hyperlink ref="A24" r:id="rId11"/>
+    <hyperlink ref="A25" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5426,87 +5447,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5526,87 +5547,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5626,87 +5647,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -5726,32 +5747,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -6023,17 +6044,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -6055,7 +6076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6063,7 +6084,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -6073,17 +6094,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
@@ -6132,142 +6153,142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/reviewURLs.xlsx
+++ b/Data Files/reviewURLs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="allPages" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="673">
   <si>
     <t>https://staging.lexus.com</t>
   </si>
@@ -1158,9 +1158,6 @@
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/models/offers</t>
-  </si>
-  <si>
-    <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/rest/lexus/offers?zip=91302&amp;offerCategory=NEW</t>
   </si>
   <si>
     <t>https://stg-lcom.cdn.cepo-proxy.tms.aws.lexus.com/concept/LF-30-Electrified</t>
@@ -4331,92 +4328,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4439,87 +4436,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4539,87 +4536,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -4639,87 +4636,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -4742,87 +4739,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -4842,137 +4839,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4992,87 +4989,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5092,87 +5089,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5192,87 +5189,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5284,7 +5281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -5292,47 +5289,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
@@ -5347,17 +5344,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -5367,7 +5364,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
@@ -5377,42 +5374,42 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -5447,87 +5444,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5547,87 +5544,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5647,87 +5644,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -5747,32 +5744,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -5797,92 +5794,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5923,42 +5920,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6039,22 +6036,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -6074,17 +6071,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -6094,17 +6091,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
@@ -6120,11 +6117,6 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6153,142 +6145,142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
